--- a/doc/GREEBEL.xlsx
+++ b/doc/GREEBEL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -928,9 +927,9 @@
   <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,7 +937,7 @@
     <col min="1" max="1" width="32.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="14" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="14"/>
-    <col min="4" max="4" width="13.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="14" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="100.7109375" style="15" bestFit="1" customWidth="1"/>
